--- a/results/Choosing_HVPPI_negative_threshold.xlsx
+++ b/results/Choosing_HVPPI_negative_threshold.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TENGANN.NG\Desktop\Nov2022_Experiments\Results_of_Interest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git - IAV_PPI_Graph_Embedding_Review\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
